--- a/HANMISYSTEM/docs/exportprint.xlsx
+++ b/HANMISYSTEM/docs/exportprint.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhp\Documents\Zalo Received Files\HANMISYSTEM\HANMISYSTEM\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phdev\source\repos\vuphuc174\HANMISYSTEM\HANMISYSTEM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D898A-DC45-435F-BE2F-A77FB5AA6AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VC" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,6 +23,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -137,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -467,7 +471,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -508,22 +512,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -532,31 +530,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -631,6 +629,33 @@
     <xf numFmtId="22" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -673,44 +698,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="표준_2009년10월수출입현황-동한 이림" xfId="3"/>
-    <cellStyle name="표준_Hose금형발주_품의" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준_2009년10월수출입현황-동한 이림" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준_Hose금형발주_품의" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1106,7 +1104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1214,6 +1218,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1249,6 +1270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1424,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -2012,37 +2050,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="24" customHeight="1">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="C3" s="2"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="H4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53">
+      <c r="G5" s="52"/>
+      <c r="H5" s="51">
         <f ca="1">NOW()</f>
-        <v>44103.401845370368</v>
+        <v>44860.698672453706</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1">
@@ -2050,30 +2088,30 @@
         <v>2</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -2081,40 +2119,40 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="J10" s="44"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="36" customHeight="1">
       <c r="A11" s="13" t="s">
@@ -2123,7 +2161,7 @@
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2132,286 +2170,264 @@
       <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="K12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="34" t="s">
+      <c r="E29" s="58"/>
+      <c r="F29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="74"/>
-    </row>
-    <row r="30" spans="1:8" s="31" customFormat="1" ht="12.75">
-      <c r="A30" s="73" t="s">
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" s="29" customFormat="1" ht="12.75">
+      <c r="A30" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="34" t="s">
+      <c r="E30" s="53"/>
+      <c r="F30" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="74"/>
-    </row>
-    <row r="31" spans="1:8" s="31" customFormat="1">
+      <c r="H30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" s="29" customFormat="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B32" s="32"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="32"/>
+      <c r="B33" s="30"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="32"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="32"/>
+      <c r="B35" s="30"/>
     </row>
     <row r="38" spans="2:2" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="F14:H14"/>
@@ -2425,6 +2441,28 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
